--- a/biology/Zoologie/Eurycea_lucifuga/Eurycea_lucifuga.xlsx
+++ b/biology/Zoologie/Eurycea_lucifuga/Eurycea_lucifuga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurycea lucifuga est une espèce d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurycea lucifuga est une espèce d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du centre-Est des États-Unis[1]. Elle se rencontre en Virginie, en Virginie-Occidentale, dans le sud de l'Indiana, au Kentucky, au Tennessee, dans le nord de la Géorgie, dans le Nord de l'Alabama, dans le nord du Mississippi, au Missouri, en Arkansas, dans l'est de l'Oklahoma et dans l'est du Kansas[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du centre-Est des États-Unis. Elle se rencontre en Virginie, en Virginie-Occidentale, dans le sud de l'Indiana, au Kentucky, au Tennessee, dans le nord de la Géorgie, dans le Nord de l'Alabama, dans le nord du Mississippi, au Missouri, en Arkansas, dans l'est de l'Oklahoma et dans l'est du Kansas.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rafinesque, 1822 : On two new salamanders of Kentucky. Kentucky Gazette, New Series, Lexington, vol. 1, no 9, p. 3.</t>
         </is>
